--- a/finish/summerOly_programs_finish.xlsx
+++ b/finish/summerOly_programs_finish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="24750" windowHeight="11000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -1391,13 +1391,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BU32"/>
+  <dimension ref="A1:BU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BT35" sqref="BT35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="70" max="70" width="12.1818181818182" customWidth="1"/>
+    <col min="71" max="71" width="16.4545454545455" customWidth="1"/>
+    <col min="72" max="72" width="19.8181818181818" customWidth="1"/>
+    <col min="73" max="73" width="19.5454545454545" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:73">
       <c r="A1" s="1" t="s">
@@ -2285,255 +2291,255 @@
     </row>
     <row r="5" spans="1:73">
       <c r="A5" s="1">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1">
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>15</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1">
         <v>5</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>8</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>6</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>16</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>0</v>
       </c>
       <c r="BR5" s="1">
         <v>4</v>
       </c>
       <c r="BS5" s="1">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="BT5" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="BU5" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:73">
       <c r="A6" s="1">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -2548,71 +2554,71 @@
         <v>0</v>
       </c>
       <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
         <v>5</v>
       </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>4</v>
       </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>2</v>
-      </c>
       <c r="AK6" s="1">
         <v>0</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="1">
         <v>0</v>
@@ -2638,16 +2644,16 @@
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="1">
         <v>0</v>
@@ -2662,13 +2668,13 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="1">
         <v>4</v>
       </c>
       <c r="BC6" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD6" s="1">
         <v>0</v>
@@ -2689,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK6" s="1">
         <v>0</v>
@@ -2704,103 +2710,103 @@
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="1">
         <v>0</v>
       </c>
       <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
         <v>5</v>
       </c>
-      <c r="BR6" s="1">
-        <v>4</v>
-      </c>
       <c r="BS6" s="1">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="BT6" s="1">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BU6" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:73">
       <c r="A7" s="1">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
       <c r="Z7" s="1">
         <v>1</v>
       </c>
@@ -2811,16 +2817,16 @@
         <v>2</v>
       </c>
       <c r="AC7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="1">
         <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="1">
         <v>0</v>
@@ -2865,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="AU7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
@@ -2877,19 +2883,19 @@
         <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7" s="1">
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BC7" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -2910,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BK7" s="1">
         <v>0</v>
@@ -2928,27 +2934,27 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR7" s="1">
         <v>5</v>
       </c>
       <c r="BS7" s="1">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="BT7" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="BU7" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" s="1">
-        <v>1920</v>
+        <v>1924</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2960,22 +2966,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -2984,10 +2990,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
         <v>8</v>
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
@@ -3032,16 +3038,16 @@
         <v>2</v>
       </c>
       <c r="AC8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1">
         <v>0</v>
@@ -3053,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AK8" s="1">
         <v>0</v>
@@ -3098,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ8" s="1">
         <v>0</v>
@@ -3107,10 +3113,10 @@
         <v>1</v>
       </c>
       <c r="BB8" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BC8" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BD8" s="1">
         <v>0</v>
@@ -3137,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="1">
         <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" s="1">
         <v>0</v>
@@ -3152,30 +3158,30 @@
         <v>5</v>
       </c>
       <c r="BQ8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BR8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS8" s="1">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="BT8" s="1">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BU8" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:73">
       <c r="A9" s="1">
-        <v>1924</v>
+        <v>1928</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3196,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -3205,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
         <v>8</v>
@@ -3217,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
         <v>0</v>
@@ -3244,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9" s="1">
         <v>2</v>
@@ -3262,7 +3268,7 @@
         <v>7</v>
       </c>
       <c r="AF9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
@@ -3274,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK9" s="1">
         <v>0</v>
@@ -3301,13 +3307,13 @@
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="1">
         <v>1</v>
       </c>
       <c r="AU9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
         <v>0</v>
@@ -3325,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="1">
         <v>3</v>
       </c>
       <c r="BC9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -3352,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="1">
         <v>0</v>
@@ -3364,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="1">
         <v>0</v>
@@ -3379,18 +3385,18 @@
         <v>6</v>
       </c>
       <c r="BS9" s="1">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="BT9" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BU9" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:73">
       <c r="A10" s="1">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -3411,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -3489,13 +3495,13 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AK10" s="1">
         <v>0</v>
@@ -3549,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD10" s="1">
         <v>0</v>
@@ -3597,10 +3603,10 @@
         <v>7</v>
       </c>
       <c r="BR10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS10" s="1">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="BT10" s="1">
         <v>20</v>
@@ -3611,7 +3617,7 @@
     </row>
     <row r="11" spans="1:73">
       <c r="A11" s="1">
-        <v>1932</v>
+        <v>1936</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -3638,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -3647,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -3659,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R11" s="1">
         <v>0</v>
@@ -3710,13 +3716,13 @@
         <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="1">
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK11" s="1">
         <v>0</v>
@@ -3728,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="1">
         <v>0</v>
@@ -3743,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="AS11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>1</v>
       </c>
       <c r="AU11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11" s="1">
         <v>0</v>
@@ -3773,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="BC11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD11" s="1">
         <v>0</v>
@@ -3821,18 +3827,18 @@
         <v>7</v>
       </c>
       <c r="BS11" s="1">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="BT11" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BU11" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:73">
       <c r="A12" s="1">
-        <v>1936</v>
+        <v>1948</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -3853,13 +3859,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -3949,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>0</v>
@@ -3964,13 +3970,13 @@
         <v>0</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
         <v>1</v>
       </c>
       <c r="AU12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="1">
         <v>0</v>
@@ -3991,11 +3997,11 @@
         <v>0</v>
       </c>
       <c r="BB12" s="1">
+        <v>5</v>
+      </c>
+      <c r="BC12" s="1">
         <v>4</v>
       </c>
-      <c r="BC12" s="1">
-        <v>3</v>
-      </c>
       <c r="BD12" s="1">
         <v>0</v>
       </c>
@@ -4033,27 +4039,27 @@
         <v>0</v>
       </c>
       <c r="BP12" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BQ12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR12" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS12" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BT12" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BU12" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:73">
       <c r="A13" s="1">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -4095,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P13" s="1">
         <v>0</v>
@@ -4158,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK13" s="1">
         <v>0</v>
@@ -4185,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" s="1">
         <v>0</v>
@@ -4215,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="BC13" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD13" s="1">
         <v>0</v>
@@ -4254,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="BP13" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BQ13" s="1">
         <v>8</v>
@@ -4263,7 +4269,7 @@
         <v>8</v>
       </c>
       <c r="BS13" s="1">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="BT13" s="1">
         <v>23</v>
@@ -4274,7 +4280,7 @@
     </row>
     <row r="14" spans="1:73">
       <c r="A14" s="1">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -4286,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -4301,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -4391,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="1">
         <v>0</v>
@@ -4484,7 +4490,7 @@
         <v>8</v>
       </c>
       <c r="BS14" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BT14" s="1">
         <v>23</v>
@@ -4495,7 +4501,7 @@
     </row>
     <row r="15" spans="1:73">
       <c r="A15" s="1">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -4507,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -4516,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -4543,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R15" s="1">
         <v>0</v>
@@ -4570,7 +4576,7 @@
         <v>4</v>
       </c>
       <c r="Z15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
         <v>2</v>
@@ -4585,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF15" s="1">
         <v>1</v>
@@ -4600,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK15" s="1">
         <v>0</v>
@@ -4612,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="AN15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>0</v>
@@ -4657,7 +4663,7 @@
         <v>5</v>
       </c>
       <c r="BC15" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD15" s="1">
         <v>0</v>
@@ -4705,7 +4711,7 @@
         <v>8</v>
       </c>
       <c r="BS15" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BT15" s="1">
         <v>23</v>
@@ -4716,7 +4722,7 @@
     </row>
     <row r="16" spans="1:73">
       <c r="A16" s="1">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -4728,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -4737,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -4788,10 +4794,10 @@
         <v>2</v>
       </c>
       <c r="Y16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1">
         <v>2</v>
@@ -4839,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ16" s="1">
         <v>0</v>
@@ -4911,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO16" s="1">
         <v>0</v>
@@ -4926,18 +4932,18 @@
         <v>8</v>
       </c>
       <c r="BS16" s="1">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="BT16" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BU16" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:73">
       <c r="A17" s="1">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -4949,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -4964,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -4976,10 +4982,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -5060,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="1">
         <v>0</v>
@@ -5099,7 +5105,7 @@
         <v>5</v>
       </c>
       <c r="BC17" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD17" s="1">
         <v>0</v>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK17" s="1">
         <v>0</v>
@@ -5147,18 +5153,18 @@
         <v>8</v>
       </c>
       <c r="BS17" s="1">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="BT17" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BU17" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:73">
       <c r="A18" s="1">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -5176,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
         <v>0</v>
@@ -5197,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
         <v>11</v>
@@ -5209,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="R18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S18" s="1">
         <v>0</v>
@@ -5272,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="1">
         <v>0</v>
@@ -5281,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ18" s="1">
         <v>0</v>
@@ -5317,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC18" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD18" s="1">
         <v>0</v>
@@ -5341,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="BJ18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK18" s="1">
         <v>0</v>
@@ -5359,27 +5365,27 @@
         <v>0</v>
       </c>
       <c r="BP18" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BQ18" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BR18" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BS18" s="1">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="BT18" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="BU18" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:73">
       <c r="A19" s="1">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -5391,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -5400,10 +5406,10 @@
         <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
@@ -5415,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -5427,31 +5433,31 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1">
         <v>4</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>5</v>
       </c>
       <c r="Z19" s="1">
         <v>2</v>
@@ -5493,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="AM19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN19" s="1">
         <v>0</v>
@@ -5529,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AZ19" s="1">
         <v>0</v>
@@ -5541,7 +5547,7 @@
         <v>6</v>
       </c>
       <c r="BC19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD19" s="1">
         <v>0</v>
@@ -5589,10 +5595,10 @@
         <v>10</v>
       </c>
       <c r="BS19" s="1">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="BT19" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BU19" s="1">
         <v>21</v>
@@ -5600,7 +5606,7 @@
     </row>
     <row r="20" spans="1:73">
       <c r="A20" s="1">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -5621,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -5693,7 +5699,7 @@
         <v>8</v>
       </c>
       <c r="AF20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -5723,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ20" s="1">
         <v>0</v>
@@ -5801,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="BP20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BQ20" s="1">
         <v>10</v>
@@ -5810,7 +5816,7 @@
         <v>10</v>
       </c>
       <c r="BS20" s="1">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="BT20" s="1">
         <v>27</v>
@@ -5821,10 +5827,10 @@
     </row>
     <row r="21" spans="1:73">
       <c r="A21" s="1">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -5833,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -5842,13 +5848,13 @@
         <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -5863,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R21" s="1">
         <v>0</v>
@@ -5890,10 +5896,10 @@
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z21" s="1">
         <v>2</v>
@@ -5929,7 +5935,7 @@
         <v>14</v>
       </c>
       <c r="AK21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="1">
         <v>0</v>
@@ -5980,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="BB21" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC21" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD21" s="1">
         <v>0</v>
@@ -6004,7 +6010,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK21" s="1">
         <v>0</v>
@@ -6031,10 +6037,10 @@
         <v>10</v>
       </c>
       <c r="BS21" s="1">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="BT21" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BU21" s="1">
         <v>21</v>
@@ -6042,7 +6048,7 @@
     </row>
     <row r="22" spans="1:73">
       <c r="A22" s="1">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -6054,19 +6060,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -6080,9 +6086,7 @@
       <c r="M22" s="1">
         <v>2</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="1">
         <v>12</v>
       </c>
@@ -6114,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="Y22" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z22" s="1">
         <v>2</v>
@@ -6165,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" s="1">
         <v>0</v>
@@ -6201,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="BB22" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC22" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD22" s="1">
         <v>0</v>
@@ -6219,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="BH22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK22" s="1">
         <v>0</v>
@@ -6252,18 +6256,18 @@
         <v>10</v>
       </c>
       <c r="BS22" s="1">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="BT22" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BU22" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:73">
       <c r="A23" s="1">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -6284,10 +6288,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I23" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1">
         <v>1</v>
@@ -6301,7 +6305,9 @@
       <c r="M23" s="1">
         <v>2</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
       <c r="O23" s="1">
         <v>12</v>
       </c>
@@ -6312,7 +6318,7 @@
         <v>12</v>
       </c>
       <c r="R23" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S23" s="1">
         <v>0</v>
@@ -6333,7 +6339,7 @@
         <v>3</v>
       </c>
       <c r="Y23" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z23" s="1">
         <v>2</v>
@@ -6384,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AQ23" s="1">
         <v>0</v>
@@ -6420,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="BB23" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC23" s="1">
         <v>13</v>
@@ -6471,21 +6477,21 @@
         <v>10</v>
       </c>
       <c r="BS23" s="1">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="BT23" s="1">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BU23" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:73">
       <c r="A24" s="1">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -6494,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
@@ -6503,16 +6509,16 @@
         <v>4</v>
       </c>
       <c r="H24" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
@@ -6521,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="1">
         <v>12</v>
@@ -6548,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y24" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z24" s="1">
         <v>2</v>
@@ -6572,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF24" s="1">
         <v>2</v>
@@ -6581,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AH24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI24" s="1">
         <v>0</v>
@@ -6590,7 +6596,7 @@
         <v>14</v>
       </c>
       <c r="AK24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" s="1">
         <v>0</v>
@@ -6617,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="1">
         <v>0</v>
@@ -6644,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="BC24" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD24" s="1">
         <v>0</v>
@@ -6662,7 +6668,7 @@
         <v>4</v>
       </c>
       <c r="BI24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ24" s="1">
         <v>4</v>
@@ -6674,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN24" s="1">
         <v>2</v>
@@ -6692,10 +6698,10 @@
         <v>10</v>
       </c>
       <c r="BS24" s="1">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="BT24" s="1">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BU24" s="1">
         <v>25</v>
@@ -6703,13 +6709,13 @@
     </row>
     <row r="25" spans="1:73">
       <c r="A25" s="1">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -6718,13 +6724,13 @@
         <v>32</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
         <v>4</v>
       </c>
       <c r="H25" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I25" s="1">
         <v>5</v>
@@ -6775,7 +6781,7 @@
         <v>4</v>
       </c>
       <c r="Y25" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z25" s="1">
         <v>2</v>
@@ -6814,7 +6820,7 @@
         <v>2</v>
       </c>
       <c r="AL25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM25" s="1">
         <v>2</v>
@@ -6838,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU25" s="1">
         <v>0</v>
@@ -6862,10 +6868,10 @@
         <v>0</v>
       </c>
       <c r="BB25" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC25" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD25" s="1">
         <v>0</v>
@@ -6883,13 +6889,13 @@
         <v>4</v>
       </c>
       <c r="BI25" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ25" s="1">
         <v>4</v>
       </c>
       <c r="BK25" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL25" s="1">
         <v>0</v>
@@ -6904,27 +6910,27 @@
         <v>0</v>
       </c>
       <c r="BP25" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BQ25" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BR25" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BS25" s="1">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="BT25" s="1">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BU25" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:73">
       <c r="A26" s="1">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -6966,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P26" s="1">
         <v>0</v>
@@ -7128,13 +7134,13 @@
         <v>15</v>
       </c>
       <c r="BQ26" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BR26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BS26" s="1">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BT26" s="1">
         <v>40</v>
@@ -7145,7 +7151,7 @@
     </row>
     <row r="27" spans="1:73">
       <c r="A27" s="1">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -7154,7 +7160,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <v>32</v>
@@ -7166,7 +7172,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" s="1">
         <v>5</v>
@@ -7208,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="1">
         <v>2</v>
@@ -7217,7 +7223,7 @@
         <v>4</v>
       </c>
       <c r="Y27" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z27" s="1">
         <v>2</v>
@@ -7307,7 +7313,7 @@
         <v>11</v>
       </c>
       <c r="BC27" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD27" s="1">
         <v>0</v>
@@ -7355,10 +7361,10 @@
         <v>7</v>
       </c>
       <c r="BS27" s="1">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BT27" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BU27" s="1">
         <v>27</v>
@@ -7366,7 +7372,7 @@
     </row>
     <row r="28" spans="1:73">
       <c r="A28" s="1">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B28" s="1">
         <v>2</v>
@@ -7393,10 +7399,10 @@
         <v>5</v>
       </c>
       <c r="J28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="1">
         <v>0</v>
@@ -7408,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P28" s="1">
         <v>0</v>
@@ -7525,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC28" s="1">
         <v>15</v>
@@ -7549,7 +7555,7 @@
         <v>8</v>
       </c>
       <c r="BJ28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK28" s="1">
         <v>2</v>
@@ -7579,15 +7585,15 @@
         <v>302</v>
       </c>
       <c r="BT28" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BU28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:73">
       <c r="A29" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -7689,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="AI29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ29" s="1">
         <v>14</v>
@@ -7740,7 +7746,7 @@
         <v>14</v>
       </c>
       <c r="AZ29" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA29" s="1">
         <v>0</v>
@@ -7791,24 +7797,24 @@
         <v>15</v>
       </c>
       <c r="BQ29" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BR29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BS29" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="BT29" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BU29" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:73">
       <c r="A30" s="1">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -7820,28 +7826,28 @@
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" s="1">
         <v>5</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M30" s="1">
         <v>2</v>
@@ -7868,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" s="1">
         <v>2</v>
@@ -7880,7 +7886,7 @@
         <v>4</v>
       </c>
       <c r="Y30" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z30" s="1">
         <v>2</v>
@@ -7898,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF30" s="1">
         <v>2</v>
@@ -7931,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="AP30" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ30" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR30" s="1">
         <v>0</v>
@@ -7973,19 +7979,19 @@
         <v>15</v>
       </c>
       <c r="BD30" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF30" s="1">
         <v>0</v>
       </c>
       <c r="BG30" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH30" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI30" s="1">
         <v>8</v>
@@ -7994,7 +8000,7 @@
         <v>5</v>
       </c>
       <c r="BK30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL30" s="1">
         <v>0</v>
@@ -8009,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="BP30" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BQ30" s="1">
         <v>12</v>
@@ -8018,18 +8024,18 @@
         <v>6</v>
       </c>
       <c r="BS30" s="1">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="BT30" s="1">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BU30" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:73">
       <c r="A31" s="1">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="B31" s="1">
         <v>2</v>
@@ -8056,10 +8062,10 @@
         <v>5</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>2</v>
@@ -8074,13 +8080,13 @@
         <v>13</v>
       </c>
       <c r="P31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R31" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -8155,7 +8161,7 @@
         <v>15</v>
       </c>
       <c r="AQ31" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="1">
         <v>0</v>
@@ -8197,7 +8203,7 @@
         <v>4</v>
       </c>
       <c r="BE31" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BF31" s="1">
         <v>0</v>
@@ -8230,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="BP31" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BQ31" s="1">
         <v>12</v>
@@ -8239,233 +8245,12 @@
         <v>6</v>
       </c>
       <c r="BS31" s="1">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="BT31" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BU31" s="1">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:73">
-      <c r="A32" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>35</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1">
-        <v>48</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0</v>
-      </c>
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1">
-        <v>2</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-      <c r="O32" s="1">
-        <v>13</v>
-      </c>
-      <c r="P32" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>10</v>
-      </c>
-      <c r="R32" s="1">
-        <v>6</v>
-      </c>
-      <c r="S32" s="1">
-        <v>0</v>
-      </c>
-      <c r="T32" s="1">
-        <v>0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>2</v>
-      </c>
-      <c r="V32" s="1">
-        <v>2</v>
-      </c>
-      <c r="W32" s="1">
-        <v>2</v>
-      </c>
-      <c r="X32" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>14</v>
-      </c>
-      <c r="AK32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>15</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="1">
-        <v>14</v>
-      </c>
-      <c r="AZ32" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="1">
-        <v>10</v>
-      </c>
-      <c r="BC32" s="1">
-        <v>15</v>
-      </c>
-      <c r="BD32" s="1">
-        <v>4</v>
-      </c>
-      <c r="BE32" s="1">
-        <v>4</v>
-      </c>
-      <c r="BF32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG32" s="1">
-        <v>2</v>
-      </c>
-      <c r="BH32" s="1">
-        <v>5</v>
-      </c>
-      <c r="BI32" s="1">
-        <v>8</v>
-      </c>
-      <c r="BJ32" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK32" s="1">
-        <v>3</v>
-      </c>
-      <c r="BL32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN32" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO32" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP32" s="1">
-        <v>10</v>
-      </c>
-      <c r="BQ32" s="1">
-        <v>12</v>
-      </c>
-      <c r="BR32" s="1">
-        <v>6</v>
-      </c>
-      <c r="BS32" s="1">
-        <v>329</v>
-      </c>
-      <c r="BT32" s="1">
-        <v>48</v>
-      </c>
-      <c r="BU32" s="1">
         <v>32</v>
       </c>
     </row>
@@ -8481,12 +8266,12 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="32.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="17.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
